--- a/summary_of_the_results.xlsx
+++ b/summary_of_the_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enrico.vigano/libcsp_workspace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0AAE6F-278C-064F-B754-E54853BFEDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62314A79-EAC4-2E40-8C2F-C26F285B4850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="21600" activeTab="1" xr2:uid="{87830DE4-77D0-D242-BBAB-3679D6DFCD25}"/>
   </bookViews>

--- a/summary_of_the_results.xlsx
+++ b/summary_of_the_results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enrico.vigano/libcsp_workspace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62314A79-EAC4-2E40-8C2F-C26F285B4850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE446A6-6E84-0F4E-800D-2DC1F4AF2384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="21600" activeTab="1" xr2:uid="{87830DE4-77D0-D242-BBAB-3679D6DFCD25}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{87830DE4-77D0-D242-BBAB-3679D6DFCD25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sum Up" sheetId="1" r:id="rId1"/>
     <sheet name="Final Mutants Table" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Final Mutants Table'!$A$1:$W$59</definedName>
     <definedName name="final_mutants_table" localSheetId="1">'Final Mutants Table'!$A$1:$O$59</definedName>
     <definedName name="final_mutants_table_1" localSheetId="1">'Final Mutants Table'!$P$1:$Q$59</definedName>
     <definedName name="final_mutants_table_2" localSheetId="1">'Final Mutants Table'!$R$1:$S$59</definedName>
@@ -50,7 +51,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{B38DB730-E868-1B4D-83EE-CF38E8FAD7C3}" name="final_mutants_table" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_01/final_mutants_table.csv" thousands="'" comma="1">
+    <textPr sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_01/final_mutants_table.csv" thousands="'" comma="1">
       <textFields count="14">
         <textField/>
         <textField/>
@@ -70,7 +71,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{1E41F220-F84C-BA4C-81D6-CA8542472B4D}" name="final_mutants_table1" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_02/final_mutants_table.csv" thousands="'" comma="1">
+    <textPr sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_02/final_mutants_table.csv" thousands="'" comma="1">
       <textFields count="14">
         <textField/>
         <textField/>
@@ -90,7 +91,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{FF0B2694-ED74-F04C-A46E-3B218EF8D2DB}" name="final_mutants_table2" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_03/final_mutants_table.csv" thousands="'" comma="1">
+    <textPr sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_03/final_mutants_table.csv" thousands="'" comma="1">
       <textFields count="14">
         <textField/>
         <textField/>
@@ -110,7 +111,7 @@
     </textPr>
   </connection>
   <connection id="4" xr16:uid="{1F14FE8A-84A6-9C48-8F19-7E711EED9955}" name="final_mutants_table3" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_04/final_mutants_table.csv" thousands="'" comma="1">
+    <textPr sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_04/final_mutants_table.csv" thousands="'" comma="1">
       <textFields count="14">
         <textField/>
         <textField/>
@@ -130,7 +131,7 @@
     </textPr>
   </connection>
   <connection id="5" xr16:uid="{47E1CE52-0123-2149-BE63-8D17DFE4A308}" name="final_mutants_table4" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_05/final_mutants_table.csv" thousands="'" comma="1">
+    <textPr sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_05/final_mutants_table.csv" thousands="'" comma="1">
       <textFields count="14">
         <textField/>
         <textField/>
@@ -150,7 +151,7 @@
     </textPr>
   </connection>
   <connection id="6" xr16:uid="{447784CD-1FEA-1D42-8DBD-99EABDAB9C3B}" name="mutation_sum_up" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_01/mutation_sum_up.csv" thousands="'" comma="1">
+    <textPr sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_01/mutation_sum_up.csv" thousands="'" comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -159,7 +160,7 @@
     </textPr>
   </connection>
   <connection id="7" xr16:uid="{2E695EAC-8EBC-B94B-947B-DC4FB787161E}" name="mutation_sum_up1" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_02/mutation_sum_up.csv" thousands="'" comma="1">
+    <textPr sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_02/mutation_sum_up.csv" thousands="'" comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -168,7 +169,7 @@
     </textPr>
   </connection>
   <connection id="8" xr16:uid="{DB62747F-77A5-1646-A585-205300B79486}" name="mutation_sum_up2" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_03/mutation_sum_up.csv" thousands="'" comma="1">
+    <textPr sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_03/mutation_sum_up.csv" thousands="'" comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -177,7 +178,7 @@
     </textPr>
   </connection>
   <connection id="9" xr16:uid="{D6846EE8-81C8-C947-9102-C0A666C0C70A}" name="mutation_sum_up3" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_04/mutation_sum_up.csv" thousands="'" comma="1">
+    <textPr sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_04/mutation_sum_up.csv" thousands="'" comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -186,7 +187,7 @@
     </textPr>
   </connection>
   <connection id="10" xr16:uid="{4D0D15A4-747B-8B42-9AD3-1C1EDB6CAC46}" name="mutation_sum_up4" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_05/mutation_sum_up.csv" thousands="'" comma="1">
+    <textPr sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_05/mutation_sum_up.csv" thousands="'" comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -198,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="64">
   <si>
     <t>all_fault_models</t>
   </si>
@@ -373,6 +374,24 @@
   <si>
     <t>conn-&gt;idin.flags</t>
   </si>
+  <si>
+    <t xml:space="preserve"> conn-&gt;idout.pri</t>
+  </si>
+  <si>
+    <t>conn-&gt;idout.src</t>
+  </si>
+  <si>
+    <t>conn-&gt;idout.dst</t>
+  </si>
+  <si>
+    <t>conn-&gt;idout.dport</t>
+  </si>
+  <si>
+    <t>conn-&gt;idout.sport</t>
+  </si>
+  <si>
+    <t>conn-&gt;idout.flags</t>
+  </si>
 </sst>
 </file>
 
@@ -457,29 +476,19 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1406,7 +1415,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="final_mutants_table" connectionId="1" xr16:uid="{C119F7E3-450F-C545-9269-FF16116AB807}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="final_mutants_table_3" connectionId="4" xr16:uid="{6DA3802D-04E6-5540-AF52-8F92362B5EEC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1426,19 +1435,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="final_mutants_table_4" connectionId="5" xr16:uid="{5D42AE49-F949-0C4A-AA9D-FC892923890F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="final_mutants_table_2" connectionId="3" xr16:uid="{E10B54AE-A433-8A44-94AF-B7174EE183B4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="final_mutants_table_3" connectionId="4" xr16:uid="{6DA3802D-04E6-5540-AF52-8F92362B5EEC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="final_mutants_table_1" connectionId="2" xr16:uid="{125BD8C0-F502-3B48-94F2-0CD055221A3A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="final_mutants_table_2" connectionId="3" xr16:uid="{E10B54AE-A433-8A44-94AF-B7174EE183B4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="final_mutants_table" connectionId="1" xr16:uid="{C119F7E3-450F-C545-9269-FF16116AB807}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="final_mutants_table_1" connectionId="2" xr16:uid="{125BD8C0-F502-3B48-94F2-0CD055221A3A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="final_mutants_table_4" connectionId="5" xr16:uid="{5D42AE49-F949-0C4A-AA9D-FC892923890F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1740,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF60103E-8BD0-B64D-9FDC-031384490C5F}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1752,20 +1761,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1776,18 +1785,18 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1798,18 +1807,18 @@
       <c r="B5" s="1">
         <v>44</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.75900000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1820,25 +1829,25 @@
       <c r="B7" s="1">
         <v>22</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1849,18 +1858,18 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1871,18 +1880,18 @@
       <c r="B13" s="1">
         <v>44</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>0.75900000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1893,25 +1902,25 @@
       <c r="B15" s="1">
         <v>27</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>0.61399999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1922,18 +1931,18 @@
       <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1944,18 +1953,18 @@
       <c r="B21" s="1">
         <v>44</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>0.75900000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1966,25 +1975,25 @@
       <c r="B23" s="1">
         <v>32</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>0.72699999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1995,18 +2004,18 @@
       <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2017,18 +2026,18 @@
       <c r="B29" s="1">
         <v>44</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>0.75900000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2039,25 +2048,25 @@
       <c r="B31" s="1">
         <v>36</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>0.81799999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2068,18 +2077,18 @@
       <c r="B35" s="1">
         <v>2</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2090,18 +2099,18 @@
       <c r="B37" s="1">
         <v>44</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>0.75900000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2112,7 +2121,7 @@
       <c r="B39" s="1">
         <v>42</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>0.95499999999999996</v>
       </c>
     </row>
@@ -2133,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D9D609-1E59-F148-BC00-A391F2F58DC2}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2163,74 +2172,74 @@
     <col min="23" max="23" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4280,7 +4289,7 @@
       <c r="S30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T30" s="7" t="s">
+      <c r="T30" s="6" t="s">
         <v>29</v>
       </c>
       <c r="U30" s="1" t="s">
@@ -4331,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>29</v>
@@ -4402,7 +4411,7 @@
         <v>28</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>29</v>
@@ -4473,7 +4482,7 @@
         <v>28</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>29</v>
@@ -4544,7 +4553,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>29</v>
@@ -4615,7 +4624,7 @@
         <v>28</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>29</v>
@@ -4686,7 +4695,7 @@
         <v>28</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>29</v>
@@ -4757,7 +4766,7 @@
         <v>1</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>34</v>
@@ -4828,7 +4837,7 @@
         <v>28</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>34</v>
@@ -4899,7 +4908,7 @@
         <v>28</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>29</v>
@@ -4970,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>34</v>
@@ -5041,7 +5050,7 @@
         <v>28</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>34</v>
@@ -5112,7 +5121,7 @@
         <v>28</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>34</v>
@@ -5183,7 +5192,7 @@
         <v>28</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>34</v>
@@ -5254,7 +5263,7 @@
         <v>28</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>34</v>
@@ -5325,7 +5334,7 @@
         <v>28</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>34</v>
@@ -5396,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>34</v>
@@ -5467,7 +5476,7 @@
         <v>28</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>34</v>
@@ -5538,7 +5547,7 @@
         <v>28</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>34</v>
@@ -5609,7 +5618,7 @@
         <v>28</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>34</v>
@@ -5680,7 +5689,7 @@
         <v>28</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>34</v>
@@ -5751,7 +5760,7 @@
         <v>28</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>34</v>
@@ -5822,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>29</v>
@@ -5893,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>29</v>
@@ -5964,7 +5973,7 @@
         <v>1</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>29</v>
@@ -6035,7 +6044,7 @@
         <v>1</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>34</v>
@@ -6106,7 +6115,7 @@
         <v>1</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>29</v>
@@ -6177,7 +6186,7 @@
         <v>1</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>29</v>
@@ -6248,7 +6257,7 @@
         <v>1</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>29</v>
@@ -6319,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>29</v>
@@ -6355,10 +6364,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="N2:W59">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="LIVE">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="LIVE">
       <formula>NOT(ISERROR(SEARCH("LIVE",N2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="KILLED">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="KILLED">
       <formula>NOT(ISERROR(SEARCH("KILLED",N2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/summary_of_the_results.xlsx
+++ b/summary_of_the_results.xlsx
@@ -1,28 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enrico.vigano/libcsp_workspace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE446A6-6E84-0F4E-800D-2DC1F4AF2384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD16103D-D032-5248-9002-40D00237EDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{87830DE4-77D0-D242-BBAB-3679D6DFCD25}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22800" windowHeight="21600" xr2:uid="{87830DE4-77D0-D242-BBAB-3679D6DFCD25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sum Up" sheetId="1" r:id="rId1"/>
     <sheet name="Final Mutants Table" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Final Mutants Table'!$A$1:$W$59</definedName>
-    <definedName name="final_mutants_table" localSheetId="1">'Final Mutants Table'!$A$1:$O$59</definedName>
-    <definedName name="final_mutants_table_1" localSheetId="1">'Final Mutants Table'!$P$1:$Q$59</definedName>
-    <definedName name="final_mutants_table_2" localSheetId="1">'Final Mutants Table'!$R$1:$S$59</definedName>
-    <definedName name="final_mutants_table_3" localSheetId="1">'Final Mutants Table'!$T$1:$U$59</definedName>
-    <definedName name="final_mutants_table_4" localSheetId="1">'Final Mutants Table'!$V$1:$W$59</definedName>
+    <definedName name="final_mutants_table" localSheetId="1">'Final Mutants Table'!#REF!</definedName>
+    <definedName name="final_mutants_table_1" localSheetId="1">'Final Mutants Table'!#REF!</definedName>
+    <definedName name="final_mutants_table_10" localSheetId="1">'Final Mutants Table'!#REF!</definedName>
+    <definedName name="final_mutants_table_11" localSheetId="1">'Final Mutants Table'!#REF!</definedName>
+    <definedName name="final_mutants_table_12" localSheetId="1">'Final Mutants Table'!#REF!</definedName>
+    <definedName name="final_mutants_table_13" localSheetId="1">'Final Mutants Table'!#REF!</definedName>
+    <definedName name="final_mutants_table_14" localSheetId="1">'Final Mutants Table'!#REF!</definedName>
+    <definedName name="final_mutants_table_15" localSheetId="1">'Final Mutants Table'!#REF!</definedName>
+    <definedName name="final_mutants_table_16" localSheetId="1">'Final Mutants Table'!$A$1:$N$44</definedName>
+    <definedName name="final_mutants_table_17" localSheetId="1">'Final Mutants Table'!$O$1:$P$44</definedName>
+    <definedName name="final_mutants_table_18" localSheetId="1">'Final Mutants Table'!$Q$1:$R$44</definedName>
+    <definedName name="final_mutants_table_19" localSheetId="1">'Final Mutants Table'!$S$1:$T$44</definedName>
+    <definedName name="final_mutants_table_2" localSheetId="1">'Final Mutants Table'!#REF!</definedName>
+    <definedName name="final_mutants_table_20" localSheetId="1">'Final Mutants Table'!$U$1:$V$44</definedName>
+    <definedName name="final_mutants_table_3" localSheetId="1">'Final Mutants Table'!#REF!</definedName>
+    <definedName name="final_mutants_table_4" localSheetId="1">'Final Mutants Table'!#REF!</definedName>
+    <definedName name="final_mutants_table_5" localSheetId="1">'Final Mutants Table'!#REF!</definedName>
+    <definedName name="final_mutants_table_6" localSheetId="1">'Final Mutants Table'!#REF!</definedName>
+    <definedName name="final_mutants_table_7" localSheetId="1">'Final Mutants Table'!#REF!</definedName>
+    <definedName name="final_mutants_table_8" localSheetId="1">'Final Mutants Table'!#REF!</definedName>
+    <definedName name="final_mutants_table_9" localSheetId="1">'Final Mutants Table'!#REF!</definedName>
     <definedName name="mutation_sum_up" localSheetId="0">'Sum Up'!$A$2:$C$7</definedName>
     <definedName name="mutation_sum_up_1" localSheetId="0">'Sum Up'!$A$10:$C$15</definedName>
     <definedName name="mutation_sum_up_2" localSheetId="0">'Sum Up'!$A$18:$C$23</definedName>
@@ -50,8 +65,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{B38DB730-E868-1B4D-83EE-CF38E8FAD7C3}" name="final_mutants_table" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_01/final_mutants_table.csv" thousands="'" comma="1">
+  <connection id="1" xr16:uid="{65A8EDFD-5D2E-9B4C-A43F-7B7E1954BF11}" name="final_mutants_table11" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/porcatroia/final_results_01/final_mutants_table.csv" thousands="'" comma="1">
       <textFields count="14">
         <textField/>
         <textField/>
@@ -70,8 +85,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{1E41F220-F84C-BA4C-81D6-CA8542472B4D}" name="final_mutants_table1" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_02/final_mutants_table.csv" thousands="'" comma="1">
+  <connection id="2" xr16:uid="{F6C96AC6-D2FF-A547-8BDF-806A339EF5C9}" name="final_mutants_table12" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/porcatroia/final_results_02/final_mutants_table.csv" thousands="'" comma="1">
       <textFields count="14">
         <textField/>
         <textField/>
@@ -90,8 +105,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{FF0B2694-ED74-F04C-A46E-3B218EF8D2DB}" name="final_mutants_table2" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_03/final_mutants_table.csv" thousands="'" comma="1">
+  <connection id="3" xr16:uid="{95687D4D-EBEF-9643-9DD7-D12D961FA11D}" name="final_mutants_table13" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/porcatroia/final_results_03/final_mutants_table.csv" thousands="'" comma="1">
       <textFields count="14">
         <textField/>
         <textField/>
@@ -110,8 +125,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{1F14FE8A-84A6-9C48-8F19-7E711EED9955}" name="final_mutants_table3" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_04/final_mutants_table.csv" thousands="'" comma="1">
+  <connection id="4" xr16:uid="{5A736423-FFD8-BD4B-BD95-7E961BE40843}" name="final_mutants_table14" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/porcatroia/final_results_04/final_mutants_table.csv" thousands="'" comma="1">
       <textFields count="14">
         <textField/>
         <textField/>
@@ -130,8 +145,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" xr16:uid="{47E1CE52-0123-2149-BE63-8D17DFE4A308}" name="final_mutants_table4" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/results_test_05/final_mutants_table.csv" thousands="'" comma="1">
+  <connection id="5" xr16:uid="{F631DC11-EB22-024D-A773-EF218DB6F7DD}" name="final_mutants_table15" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/enrico.vigano/libcsp_workspace/damat-pipeline/porcatroia/final_results_05/final_mutants_table.csv" thousands="'" comma="1">
       <textFields count="14">
         <textField/>
         <textField/>
@@ -199,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="50">
   <si>
     <t>all_fault_models</t>
   </si>
@@ -327,12 +342,6 @@
     <t>Status_01</t>
   </si>
   <si>
-    <t>Application_01</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Status_02</t>
   </si>
   <si>
@@ -355,42 +364,6 @@
   </si>
   <si>
     <t>Application_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> conn-&gt;idin.pri</t>
-  </si>
-  <si>
-    <t>conn-&gt;idin.src</t>
-  </si>
-  <si>
-    <t>conn-&gt;idin.dst</t>
-  </si>
-  <si>
-    <t>conn-&gt;idin.dport</t>
-  </si>
-  <si>
-    <t>conn-&gt;idin.sport</t>
-  </si>
-  <si>
-    <t>conn-&gt;idin.flags</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> conn-&gt;idout.pri</t>
-  </si>
-  <si>
-    <t>conn-&gt;idout.src</t>
-  </si>
-  <si>
-    <t>conn-&gt;idout.dst</t>
-  </si>
-  <si>
-    <t>conn-&gt;idout.dport</t>
-  </si>
-  <si>
-    <t>conn-&gt;idout.sport</t>
-  </si>
-  <si>
-    <t>conn-&gt;idout.flags</t>
   </si>
 </sst>
 </file>
@@ -420,7 +393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,12 +409,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,18 +444,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -598,7 +575,7 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -616,22 +593,22 @@
             <c:numRef>
               <c:f>('Sum Up'!$C$7,'Sum Up'!$C$15,'Sum Up'!$C$23,'Sum Up'!$C$31,'Sum Up'!$C$39)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61399999999999999</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72699999999999998</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81799999999999995</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95499999999999996</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -639,7 +616,53 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-520F-4C48-90AA-545DD3489E83}"/>
+              <c16:uniqueId val="{00000003-364C-2A43-A074-2E435E2D788F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>('Sum Up'!$C$7,'Sum Up'!$C$15,'Sum Up'!$C$23,'Sum Up'!$C$31,'Sum Up'!$C$39)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-364C-2A43-A074-2E435E2D788F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -726,7 +749,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -758,6 +781,296 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="129990064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-LU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" b="1"/>
+              <a:t>Mutation Operation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" b="1" baseline="0"/>
+              <a:t> Coverage Increase</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-LU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>('Sum Up'!$C$5,'Sum Up'!$C$13,'Sum Up'!$C$21,'Sum Up'!$C$29,'Sum Up'!$C$37)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A72C-FC4F-A15D-404150F69121}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1133866896"/>
+        <c:axId val="1177740432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1133866896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-LU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1177740432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1177740432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-LU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1133866896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -814,6 +1127,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1369,20 +1722,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1407,6 +2276,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51659B6C-1BFE-7BE9-5CCF-20B80D12A292}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1415,7 +2320,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="final_mutants_table_3" connectionId="4" xr16:uid="{6DA3802D-04E6-5540-AF52-8F92362B5EEC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="final_mutants_table_16" connectionId="1" xr16:uid="{C4BA4C7E-D839-6D4A-9DC3-37B2F6D9ECB1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1435,19 +2340,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="final_mutants_table_2" connectionId="3" xr16:uid="{E10B54AE-A433-8A44-94AF-B7174EE183B4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="final_mutants_table_20" connectionId="5" xr16:uid="{0A33532E-DD8C-B94D-8334-EDF16CDBF3AE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="final_mutants_table_1" connectionId="2" xr16:uid="{125BD8C0-F502-3B48-94F2-0CD055221A3A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="final_mutants_table_19" connectionId="4" xr16:uid="{7ACAE530-1F93-8446-B7FA-5B0D0A462021}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="final_mutants_table" connectionId="1" xr16:uid="{C119F7E3-450F-C545-9269-FF16116AB807}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="final_mutants_table_18" connectionId="3" xr16:uid="{DB289B7F-BA8B-A541-A236-2B782D0B5080}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="final_mutants_table_4" connectionId="5" xr16:uid="{5D42AE49-F949-0C4A-AA9D-FC892923890F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="final_mutants_table_17" connectionId="2" xr16:uid="{DF2702D0-78F3-E340-9E97-3621F8273917}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1749,8 +2654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF60103E-8BD0-B64D-9FDC-031384490C5F}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1761,11 +2666,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1774,7 +2679,7 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1785,7 +2690,7 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1796,19 +2701,19 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1">
-        <v>44</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.75900000000000001</v>
+        <v>42</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1818,27 +2723,27 @@
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1">
         <v>22</v>
       </c>
-      <c r="C7" s="4">
-        <v>0.5</v>
+      <c r="C7" s="7">
+        <v>0.52</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -1847,7 +2752,7 @@
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1858,7 +2763,7 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1869,19 +2774,19 @@
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1">
-        <v>44</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.75900000000000001</v>
+        <v>43</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1891,27 +2796,27 @@
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1">
-        <v>27</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.61399999999999999</v>
+        <v>26</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.61</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -1920,7 +2825,7 @@
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1931,7 +2836,7 @@
       <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1942,19 +2847,19 @@
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1">
-        <v>44</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.75900000000000001</v>
+        <v>43</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1964,27 +2869,27 @@
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1">
-        <v>32</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.72699999999999998</v>
+        <v>29</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.67</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
@@ -1993,7 +2898,7 @@
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2004,7 +2909,7 @@
       <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2015,19 +2920,19 @@
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B29" s="1">
-        <v>44</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.75900000000000001</v>
+        <v>43</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2037,27 +2942,27 @@
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1">
-        <v>36</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0.81799999999999995</v>
+        <v>35</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.81</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
@@ -2066,7 +2971,7 @@
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2077,7 +2982,7 @@
       <c r="B35" s="1">
         <v>2</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2088,19 +2993,19 @@
       <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1">
-        <v>44</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0.75900000000000001</v>
+        <v>43</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2110,19 +3015,19 @@
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1">
-        <v>42</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0.95499999999999996</v>
+        <v>41</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -2140,39 +3045,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D9D609-1E59-F148-BC00-A391F2F58DC2}">
-  <dimension ref="A1:W59"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -2210,40 +3115,37 @@
         <v>24</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2251,7 +3153,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2266,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>28</v>
@@ -2281,40 +3183,37 @@
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2322,7 +3221,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2340,7 +3239,7 @@
         <v>28</v>
       </c>
       <c r="I3" s="1">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -2352,40 +3251,37 @@
         <v>28</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2393,7 +3289,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2402,61 +3298,58 @@
         <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="1">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>31</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>28</v>
+      <c r="L4" s="1">
+        <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2464,7 +3357,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2473,61 +3366,58 @@
         <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
         <v>31</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1">
+        <v>31</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="1">
-        <v>1</v>
+      <c r="L5" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2535,7 +3425,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -2544,16 +3434,16 @@
         <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="1">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -2561,44 +3451,41 @@
       <c r="K6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>28</v>
+      <c r="L6" s="1">
+        <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2606,7 +3493,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -2615,16 +3502,16 @@
         <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="1">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -2636,40 +3523,37 @@
         <v>28</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2677,7 +3561,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -2686,61 +3570,58 @@
         <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H8" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="1">
-        <v>1</v>
+      <c r="L8" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2748,7 +3629,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -2757,16 +3638,16 @@
         <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="1">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -2778,40 +3659,37 @@
         <v>28</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2819,7 +3697,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -2828,7 +3706,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>28</v>
@@ -2836,8 +3714,8 @@
       <c r="H10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="1">
-        <v>31</v>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -2849,40 +3727,37 @@
         <v>28</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2899,61 +3774,58 @@
         <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="1">
-        <v>8</v>
-      </c>
-      <c r="H11" s="1">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="1">
-        <v>1</v>
+      <c r="L11" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2961,7 +3833,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -2970,7 +3842,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G12" s="1">
         <v>8</v>
@@ -2987,44 +3859,41 @@
       <c r="K12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>28</v>
+      <c r="L12" s="1">
+        <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3032,7 +3901,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -3062,40 +3931,37 @@
         <v>28</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3103,7 +3969,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3112,7 +3978,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1">
         <v>8</v>
@@ -3133,40 +3999,37 @@
         <v>28</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3174,7 +4037,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -3183,13 +4046,13 @@
         <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1">
+        <v>30</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>28</v>
@@ -3204,40 +4067,37 @@
         <v>28</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3245,7 +4105,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -3266,7 +4126,7 @@
         <v>28</v>
       </c>
       <c r="J16" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>28</v>
@@ -3275,40 +4135,37 @@
         <v>28</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3325,61 +4182,58 @@
         <v>26</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="1">
-        <v>8</v>
-      </c>
-      <c r="H17" s="1">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="1">
-        <v>0</v>
+      <c r="L17" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3387,70 +4241,67 @@
         <v>25</v>
       </c>
       <c r="C18" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G18" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>28</v>
+      <c r="J18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3458,70 +4309,67 @@
         <v>25</v>
       </c>
       <c r="C19" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G19" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>28</v>
+      <c r="J19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3529,70 +4377,67 @@
         <v>25</v>
       </c>
       <c r="C20" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G20" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H20" s="1">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>28</v>
+      <c r="J20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3600,78 +4445,75 @@
         <v>25</v>
       </c>
       <c r="C21" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>28</v>
+      <c r="J21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -3680,629 +4522,602 @@
         <v>26</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J22" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>28</v>
+      <c r="L22" s="1">
+        <v>1</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="1">
-        <v>1</v>
-      </c>
-      <c r="L23" s="1">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1</v>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="L25" s="1">
         <v>1</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="1">
+        <v>31</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1</v>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="L27" s="1">
         <v>1</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="1">
-        <v>2</v>
-      </c>
-      <c r="H28" s="1">
-        <v>2</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
-      <c r="L28" s="1">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="1">
+        <v>31</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G29" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H29" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="1">
-        <v>1</v>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="L29" s="1">
         <v>1</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G30" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H30" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
-        <v>1</v>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T30" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4310,7 +5125,7 @@
         <v>40</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -4319,61 +5134,58 @@
         <v>26</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H31" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L31" s="1">
-        <v>1</v>
+      <c r="L31" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4381,7 +5193,7 @@
         <v>40</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -4390,16 +5202,16 @@
         <v>26</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="1">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="G32" s="1">
+        <v>8</v>
+      </c>
+      <c r="H32" s="1">
+        <v>30</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -4411,40 +5223,37 @@
         <v>28</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4452,7 +5261,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -4461,7 +5270,7 @@
         <v>26</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>28</v>
@@ -4469,8 +5278,8 @@
       <c r="H33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="1">
-        <v>3</v>
+      <c r="I33" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -4482,40 +5291,37 @@
         <v>28</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4523,7 +5329,7 @@
         <v>40</v>
       </c>
       <c r="C34" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -4532,61 +5338,58 @@
         <v>26</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L34" s="1">
-        <v>1</v>
+      <c r="L34" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4594,7 +5397,7 @@
         <v>40</v>
       </c>
       <c r="C35" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -4603,16 +5406,16 @@
         <v>26</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I35" s="1">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="G35" s="1">
+        <v>8</v>
+      </c>
+      <c r="H35" s="1">
+        <v>30</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -4620,44 +5423,41 @@
       <c r="K35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>28</v>
+      <c r="L35" s="1">
+        <v>0</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4665,7 +5465,7 @@
         <v>40</v>
       </c>
       <c r="C36" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -4674,16 +5474,16 @@
         <v>26</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" s="1">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="G36" s="1">
+        <v>8</v>
+      </c>
+      <c r="H36" s="1">
+        <v>30</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -4695,40 +5495,37 @@
         <v>28</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W36" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4736,7 +5533,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -4745,61 +5542,58 @@
         <v>26</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H37" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L37" s="1">
-        <v>1</v>
+      <c r="L37" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4807,7 +5601,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -4816,16 +5610,16 @@
         <v>26</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="1">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="G38" s="1">
+        <v>8</v>
+      </c>
+      <c r="H38" s="1">
+        <v>30</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
@@ -4837,40 +5631,37 @@
         <v>28</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W38" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4878,7 +5669,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -4887,7 +5678,7 @@
         <v>26</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>28</v>
@@ -4895,8 +5686,8 @@
       <c r="H39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="1">
-        <v>31</v>
+      <c r="I39" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -4908,40 +5699,37 @@
         <v>28</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4949,7 +5737,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -4958,61 +5746,58 @@
         <v>26</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="1">
-        <v>8</v>
-      </c>
-      <c r="H40" s="1">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J40" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L40" s="1">
-        <v>1</v>
+      <c r="L40" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W40" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5020,70 +5805,67 @@
         <v>40</v>
       </c>
       <c r="C41" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G41" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J41" s="1">
-        <v>1</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>28</v>
+      <c r="J41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>1</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -5091,70 +5873,67 @@
         <v>40</v>
       </c>
       <c r="C42" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G42" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H42" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J42" s="1">
-        <v>1</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>28</v>
+      <c r="J42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W42" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -5162,70 +5941,67 @@
         <v>40</v>
       </c>
       <c r="C43" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G43" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H43" s="1">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J43" s="1">
-        <v>1</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>28</v>
+      <c r="J43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W43" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -5233,1142 +6009,74 @@
         <v>40</v>
       </c>
       <c r="C44" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="G44" s="1">
+        <v>3</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J44" s="1">
-        <v>1</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>28</v>
+      <c r="J44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>1</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W44" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="1">
-        <v>4</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J45" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W45" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="1">
-        <v>5</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" s="1">
-        <v>8</v>
-      </c>
-      <c r="H46" s="1">
-        <v>30</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J46" s="1">
-        <v>1</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W46" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="1">
-        <v>5</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G47" s="1">
-        <v>8</v>
-      </c>
-      <c r="H47" s="1">
-        <v>30</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J47" s="1">
-        <v>1</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W47" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="1">
-        <v>5</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G48" s="1">
-        <v>8</v>
-      </c>
-      <c r="H48" s="1">
-        <v>30</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J48" s="1">
-        <v>1</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W48" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="1">
-        <v>5</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G49" s="1">
-        <v>8</v>
-      </c>
-      <c r="H49" s="1">
-        <v>30</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J49" s="1">
-        <v>1</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W49" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="1">
-        <v>5</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J50" s="1">
-        <v>1</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W50" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="1">
-        <v>5</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J51" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W51" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="1">
-        <v>6</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K52" s="1">
-        <v>1</v>
-      </c>
-      <c r="L52" s="1">
-        <v>1</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U52" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W52" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="1">
-        <v>6</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K53" s="1">
-        <v>0</v>
-      </c>
-      <c r="L53" s="1">
-        <v>1</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U53" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W53" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="1">
-        <v>6</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1</v>
-      </c>
-      <c r="H54" s="1">
-        <v>1</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K54" s="1">
-        <v>1</v>
-      </c>
-      <c r="L54" s="1">
-        <v>1</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W54" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="1">
-        <v>6</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G55" s="1">
-        <v>1</v>
-      </c>
-      <c r="H55" s="1">
-        <v>1</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K55" s="1">
-        <v>0</v>
-      </c>
-      <c r="L55" s="1">
-        <v>1</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W55" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="1">
-        <v>6</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G56" s="1">
-        <v>2</v>
-      </c>
-      <c r="H56" s="1">
-        <v>2</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K56" s="1">
-        <v>1</v>
-      </c>
-      <c r="L56" s="1">
-        <v>1</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W56" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="1">
-        <v>6</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G57" s="1">
-        <v>2</v>
-      </c>
-      <c r="H57" s="1">
-        <v>2</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K57" s="1">
-        <v>0</v>
-      </c>
-      <c r="L57" s="1">
-        <v>1</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W57" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="1">
-        <v>6</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G58" s="1">
-        <v>3</v>
-      </c>
-      <c r="H58" s="1">
-        <v>3</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K58" s="1">
-        <v>1</v>
-      </c>
-      <c r="L58" s="1">
-        <v>1</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S58" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W58" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="1">
-        <v>6</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G59" s="1">
-        <v>3</v>
-      </c>
-      <c r="H59" s="1">
-        <v>3</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K59" s="1">
-        <v>0</v>
-      </c>
-      <c r="L59" s="1">
-        <v>1</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U59" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W59" s="1" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N2:W59">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="LIVE">
-      <formula>NOT(ISERROR(SEARCH("LIVE",N2)))</formula>
+  <conditionalFormatting sqref="M2:V44">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="LIVE">
+      <formula>NOT(ISERROR(SEARCH("LIVE",M2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="KILLED">
-      <formula>NOT(ISERROR(SEARCH("KILLED",N2)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="KILLED">
+      <formula>NOT(ISERROR(SEARCH("KILLED",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
